--- a/code/PhaseI/data/iccps/Feeder1.xlsx
+++ b/code/PhaseI/data/iccps/Feeder1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>NetProduction_1</t>
+  </si>
+  <si>
+    <t>Net_Consumption_1</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,9 +385,10 @@
     <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +422,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -454,8 +461,12 @@
         <f>B2+C2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>SUM(D2:J2)</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -490,8 +501,12 @@
         <f t="shared" ref="K3:K66" si="0">B3+C3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="1">SUM(D3:J3)</f>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -526,8 +541,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>5.5000000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -562,8 +581,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -598,8 +621,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -634,8 +661,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -670,8 +701,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -706,8 +741,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -742,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -778,8 +821,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -814,8 +861,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -850,8 +901,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -886,8 +941,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -922,8 +981,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -958,8 +1021,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -994,8 +1061,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1030,8 +1101,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -1066,8 +1141,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1102,8 +1181,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -1138,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1174,8 +1261,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1210,8 +1301,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -1246,8 +1341,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -1282,8 +1381,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1318,8 +1421,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -1354,8 +1461,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -1390,8 +1501,12 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1426,8 +1541,12 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -1462,8 +1581,12 @@
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -1498,8 +1621,12 @@
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>8.7000000000000011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1534,8 +1661,12 @@
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -1570,8 +1701,12 @@
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1606,8 +1741,12 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1642,8 +1781,12 @@
         <f t="shared" si="0"/>
         <v>15.799999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1678,8 +1821,12 @@
         <f t="shared" si="0"/>
         <v>19.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1714,8 +1861,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>14.200000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1750,8 +1901,12 @@
         <f t="shared" si="0"/>
         <v>27.099999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>14.600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -1786,8 +1941,12 @@
         <f t="shared" si="0"/>
         <v>31.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1822,8 +1981,12 @@
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1858,8 +2021,12 @@
         <f t="shared" si="0"/>
         <v>39.900000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1894,8 +2061,12 @@
         <f t="shared" si="0"/>
         <v>44.300000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -1930,8 +2101,12 @@
         <f t="shared" si="0"/>
         <v>48.800000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1966,8 +2141,12 @@
         <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -2002,8 +2181,12 @@
         <f t="shared" si="0"/>
         <v>57.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>14.900000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -2038,8 +2221,12 @@
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>15.100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -2074,8 +2261,12 @@
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>15.100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -2110,8 +2301,12 @@
         <f t="shared" si="0"/>
         <v>69.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -2146,8 +2341,12 @@
         <f t="shared" si="0"/>
         <v>72.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -2182,8 +2381,12 @@
         <f t="shared" si="0"/>
         <v>76.199999999999989</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>15.100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -2218,8 +2421,12 @@
         <f t="shared" si="0"/>
         <v>79.100000000000009</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -2254,8 +2461,12 @@
         <f t="shared" si="0"/>
         <v>81.599999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -2290,8 +2501,12 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>14.700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -2326,8 +2541,12 @@
         <f t="shared" si="0"/>
         <v>85.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>14.200000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -2362,8 +2581,12 @@
         <f t="shared" si="0"/>
         <v>87.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -2398,8 +2621,12 @@
         <f t="shared" si="0"/>
         <v>88.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -2434,8 +2661,12 @@
         <f t="shared" si="0"/>
         <v>88.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -2470,8 +2701,12 @@
         <f t="shared" si="0"/>
         <v>89.100000000000009</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>12.700000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2506,8 +2741,12 @@
         <f t="shared" si="0"/>
         <v>88.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2542,8 +2781,12 @@
         <f t="shared" si="0"/>
         <v>88.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>12.399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -2578,8 +2821,12 @@
         <f t="shared" si="0"/>
         <v>87.100000000000009</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -2614,8 +2861,12 @@
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>12.699999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -2650,8 +2901,12 @@
         <f t="shared" si="0"/>
         <v>83.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>12.599999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -2686,8 +2941,12 @@
         <f t="shared" si="0"/>
         <v>81.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>12.799999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -2722,8 +2981,12 @@
         <f t="shared" si="0"/>
         <v>78.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -2758,8 +3021,12 @@
         <f t="shared" si="0"/>
         <v>75.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -2791,11 +3058,15 @@
         <v>0.7</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K97" si="1">B67+C67</f>
+        <f t="shared" ref="K67:K97" si="2">B67+C67</f>
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" ref="L67:L97" si="3">SUM(D67:J67)</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -2827,11 +3098,15 @@
         <v>0.7</v>
       </c>
       <c r="K68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="3"/>
+        <v>12.499999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -2863,11 +3138,15 @@
         <v>0.7</v>
       </c>
       <c r="K69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="3"/>
+        <v>12.499999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2899,11 +3178,15 @@
         <v>0.7</v>
       </c>
       <c r="K70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>12.499999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -2935,11 +3218,15 @@
         <v>0.7</v>
       </c>
       <c r="K71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>12.699999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -2971,11 +3258,15 @@
         <v>0.7</v>
       </c>
       <c r="K72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>12.599999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -3007,11 +3298,15 @@
         <v>0.8</v>
       </c>
       <c r="K73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>12.399999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -3043,11 +3338,15 @@
         <v>0.8</v>
       </c>
       <c r="K74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -3079,11 +3378,15 @@
         <v>0.8</v>
       </c>
       <c r="K75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.300000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -3115,11 +3418,15 @@
         <v>0.9</v>
       </c>
       <c r="K76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -3151,11 +3458,15 @@
         <v>0.9</v>
       </c>
       <c r="K77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.599999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>10.700000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -3187,11 +3498,15 @@
         <v>0.9</v>
       </c>
       <c r="K78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -3223,11 +3538,15 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -3259,11 +3578,15 @@
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="3"/>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -3295,11 +3618,15 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -3331,11 +3658,15 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -3367,11 +3698,15 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -3403,11 +3738,15 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -3439,11 +3778,15 @@
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -3475,11 +3818,15 @@
         <v>1</v>
       </c>
       <c r="K86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -3511,11 +3858,15 @@
         <v>0.9</v>
       </c>
       <c r="K87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -3547,11 +3898,15 @@
         <v>0.9</v>
       </c>
       <c r="K88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="3"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -3583,11 +3938,15 @@
         <v>0.9</v>
       </c>
       <c r="K89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -3619,11 +3978,15 @@
         <v>0.9</v>
       </c>
       <c r="K90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -3655,11 +4018,15 @@
         <v>0.9</v>
       </c>
       <c r="K91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -3691,11 +4058,15 @@
         <v>0.9</v>
       </c>
       <c r="K92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -3727,11 +4098,15 @@
         <v>0.8</v>
       </c>
       <c r="K93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="3"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -3763,11 +4138,15 @@
         <v>0.8</v>
       </c>
       <c r="K94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -3799,11 +4178,15 @@
         <v>0.7</v>
       </c>
       <c r="K95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -3835,11 +4218,15 @@
         <v>0.6</v>
       </c>
       <c r="K96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -3871,8 +4258,12 @@
         <v>0.6</v>
       </c>
       <c r="K97">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="3"/>
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
